--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>TEST_URL</t>
   </si>
@@ -19,10 +20,58 @@
     <t>PRODUCT_CATEGORY</t>
   </si>
   <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>THREAD_COLOR</t>
+  </si>
+  <si>
+    <t>UPDATED_SIZE</t>
+  </si>
+  <si>
+    <t>UPDATED_THREAD_COLOR</t>
+  </si>
+  <si>
     <t>https://www.contrado.co.uk/</t>
   </si>
   <si>
     <t>Kids Premium T-Shirts</t>
+  </si>
+  <si>
+    <t>9-10 years</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>5-6 years</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Model employee</t>
+  </si>
+  <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <t>1. Responsive and Intelligent. Take responsblity
+2. Self dependent for the assigned tasks. highlighted risks based on the situation
+3. Proactive involvement in 
+4. Good technicl capablity on maual and automation
+5. Eager to learn and implement new technologies and tools in th projects
+6. Hardworking and ready to extend help as and when required</t>
+  </si>
+  <si>
+    <t>Improvement Area</t>
+  </si>
+  <si>
+    <t>1. Imprve functional knowlodge of project
+2. Mainitain proper quality of test case by review and updating them
+3. Learning of project and increase involement in different testing activities
+4.1. Active engagement with client interactions is needed from Balihoo QA front. As of now, the DEV team mostly covers the QA part which needs to be reduced. 
+2. Review and Upgrade the test automation packages. Identify bottlenecks and provide improvement suggestion, implement upgrades, train team for better implementation approach.</t>
   </si>
 </sst>
 </file>
@@ -63,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -76,6 +125,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -85,6 +137,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -294,6 +350,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="24.43"/>
     <col customWidth="1" min="2" max="2" width="22.14"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="6" max="6" width="26.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -303,13 +361,37 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -318,4 +400,45 @@
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A21"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:F5"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:F12"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -38,13 +38,13 @@
     <t>Kids Premium T-Shirts</t>
   </si>
   <si>
-    <t>9-10 years</t>
+    <t>9-10 Years</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>5-6 years</t>
+    <t>5-6 Years</t>
   </si>
   <si>
     <t>White</t>
